--- a/uipath/dailymovement/global_dailymovement/global.xlsx
+++ b/uipath/dailymovement/global_dailymovement/global.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngjin\Desktop\new stock scraper\global\stockprice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngjin\Desktop\UiPath\dailymovement\global_dailymovement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E9123C-82E7-47E3-A6FD-434802C0B954}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5962789D-E7D2-45B7-B22E-E29379406E87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5790" yWindow="950" windowWidth="10100" windowHeight="8860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="1870" windowWidth="14400" windowHeight="8860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="global ticker" sheetId="5" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>Citibank</t>
   </si>
@@ -90,18 +90,6 @@
   </si>
   <si>
     <t>GOOG</t>
-  </si>
-  <si>
-    <t>Nasdaq</t>
-  </si>
-  <si>
-    <t>%5EIXIC</t>
-  </si>
-  <si>
-    <t>DowJones</t>
-  </si>
-  <si>
-    <t>%5EDJI</t>
   </si>
   <si>
     <t>DR</t>
@@ -123,7 +111,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;Done&quot;;&quot;&quot;;&quot;&quot;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,13 +156,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -228,7 +209,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -237,12 +218,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -595,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6558361D-F0A6-4DCE-9874-6417ACA86F8F}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -614,16 +589,16 @@
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -633,9 +608,6 @@
       <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="E2">
-        <v>0.2</v>
-      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -644,9 +616,6 @@
       <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="E3">
-        <v>0.2</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -655,9 +624,6 @@
       <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="E4">
-        <v>0.1</v>
-      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
@@ -666,9 +632,6 @@
       <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="E5">
-        <v>0.1</v>
-      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
@@ -677,9 +640,6 @@
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="E6">
-        <v>0.1</v>
-      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
@@ -688,9 +648,6 @@
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="E7">
-        <v>0.1</v>
-      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
@@ -699,9 +656,6 @@
       <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="E8">
-        <v>0.05</v>
-      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
@@ -710,9 +664,6 @@
       <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="E9">
-        <v>0.05</v>
-      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
@@ -721,9 +672,6 @@
       <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="E10">
-        <v>0.05</v>
-      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
@@ -731,31 +679,6 @@
       </c>
       <c r="B11" t="s">
         <v>14</v>
-      </c>
-      <c r="E11">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
